--- a/Data_frame/balancos_definitivos/BPIA3.xlsx
+++ b/Data_frame/balancos_definitivos/BPIA3.xlsx
@@ -10491,127 +10491,47 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>0</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
